--- a/data/pca/factorExposure/factorExposure_2014-08-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.004731418904633404</v>
+        <v>0.02019362533503621</v>
       </c>
       <c r="C2">
-        <v>-0.1210419635522721</v>
+        <v>-0.06738325404465412</v>
       </c>
       <c r="D2">
-        <v>-0.02087680052433333</v>
+        <v>-0.03088820258140004</v>
       </c>
       <c r="E2">
-        <v>0.214045914955752</v>
+        <v>-0.01141000645499209</v>
       </c>
       <c r="F2">
-        <v>-0.07501821932878155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03909853458632531</v>
+      </c>
+      <c r="G2">
+        <v>-0.1591784504168603</v>
+      </c>
+      <c r="H2">
+        <v>-0.03933196947047763</v>
+      </c>
+      <c r="I2">
+        <v>-0.0209361943647803</v>
+      </c>
+      <c r="J2">
+        <v>-0.1231008795568013</v>
+      </c>
+      <c r="K2">
+        <v>0.04362701334502116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01426559513374933</v>
+        <v>0.01961643948748287</v>
       </c>
       <c r="C4">
-        <v>-0.1727321415127509</v>
+        <v>-0.1425737589983369</v>
       </c>
       <c r="D4">
-        <v>-0.04718576976679421</v>
+        <v>-0.06579590692054643</v>
       </c>
       <c r="E4">
-        <v>0.07408297837827262</v>
+        <v>-0.005196272304600523</v>
       </c>
       <c r="F4">
-        <v>0.07568254029090149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06501601855986876</v>
+      </c>
+      <c r="G4">
+        <v>-0.03308100015658286</v>
+      </c>
+      <c r="H4">
+        <v>0.006803063144249667</v>
+      </c>
+      <c r="I4">
+        <v>0.04945179712035713</v>
+      </c>
+      <c r="J4">
+        <v>-0.09188878288157085</v>
+      </c>
+      <c r="K4">
+        <v>-0.008438293631307324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02710473408081092</v>
+        <v>0.04072778409114285</v>
       </c>
       <c r="C6">
-        <v>-0.07489676816375572</v>
+        <v>-0.08550547560593501</v>
       </c>
       <c r="D6">
-        <v>-0.05369922038429494</v>
+        <v>-0.02872418470044727</v>
       </c>
       <c r="E6">
-        <v>0.06236553353163887</v>
+        <v>0.02525034836868488</v>
       </c>
       <c r="F6">
-        <v>0.0116486773256318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.0234333477725588</v>
+      </c>
+      <c r="G6">
+        <v>-0.04907742978790239</v>
+      </c>
+      <c r="H6">
+        <v>0.05193875692012529</v>
+      </c>
+      <c r="I6">
+        <v>0.05263179723145424</v>
+      </c>
+      <c r="J6">
+        <v>0.01681546888838257</v>
+      </c>
+      <c r="K6">
+        <v>0.03884311573924823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.007195250594926868</v>
+        <v>0.01902114915490765</v>
       </c>
       <c r="C7">
-        <v>-0.08065886058639152</v>
+        <v>-0.07155206069050737</v>
       </c>
       <c r="D7">
-        <v>-0.04045359269000275</v>
+        <v>-0.03331437746397017</v>
       </c>
       <c r="E7">
-        <v>0.01147099631084512</v>
+        <v>0.00396396775826431</v>
       </c>
       <c r="F7">
-        <v>0.02210467563214745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.01384235250980265</v>
+      </c>
+      <c r="G7">
+        <v>0.00919961937082988</v>
+      </c>
+      <c r="H7">
+        <v>0.02122920179450504</v>
+      </c>
+      <c r="I7">
+        <v>0.05253097001748144</v>
+      </c>
+      <c r="J7">
+        <v>-0.09985578592543055</v>
+      </c>
+      <c r="K7">
+        <v>0.02811584644405663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.0114758679982156</v>
+        <v>0.001701422940411718</v>
       </c>
       <c r="C8">
-        <v>-0.07166703642961114</v>
+        <v>-0.06144780080058521</v>
       </c>
       <c r="D8">
-        <v>-0.03391123852386212</v>
+        <v>-0.04830480958442478</v>
       </c>
       <c r="E8">
-        <v>0.07237119726468573</v>
+        <v>0.03546385702170611</v>
       </c>
       <c r="F8">
-        <v>0.01416916225470658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02639839575282044</v>
+      </c>
+      <c r="G8">
+        <v>-0.06098143101752653</v>
+      </c>
+      <c r="H8">
+        <v>-0.01410575310635283</v>
+      </c>
+      <c r="I8">
+        <v>0.05448381910502306</v>
+      </c>
+      <c r="J8">
+        <v>-0.01356518068522793</v>
+      </c>
+      <c r="K8">
+        <v>-0.00639321782276995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.008400072500605564</v>
+        <v>0.01320129264428951</v>
       </c>
       <c r="C9">
-        <v>-0.1227039473673542</v>
+        <v>-0.1003861065703879</v>
       </c>
       <c r="D9">
-        <v>-0.0553689568917214</v>
+        <v>-0.04093009183463226</v>
       </c>
       <c r="E9">
-        <v>0.01844220467861325</v>
+        <v>-0.02468155249385412</v>
       </c>
       <c r="F9">
-        <v>0.01900027660663822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.03279179531252133</v>
+      </c>
+      <c r="G9">
+        <v>-0.02314814081556513</v>
+      </c>
+      <c r="H9">
+        <v>-0.009328810324835063</v>
+      </c>
+      <c r="I9">
+        <v>0.05470686523883299</v>
+      </c>
+      <c r="J9">
+        <v>-0.09753630176863397</v>
+      </c>
+      <c r="K9">
+        <v>0.0160650456151002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2596657462896593</v>
+        <v>0.2455904547466589</v>
       </c>
       <c r="C10">
-        <v>0.07287100065858176</v>
+        <v>0.09399224147143824</v>
       </c>
       <c r="D10">
-        <v>0.01931257504392201</v>
+        <v>0.005837326706339167</v>
       </c>
       <c r="E10">
-        <v>-0.02768196501017267</v>
+        <v>0.05587491043905016</v>
       </c>
       <c r="F10">
-        <v>0.02243015834945835</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01085008427763201</v>
+      </c>
+      <c r="G10">
+        <v>-0.01805864793356704</v>
+      </c>
+      <c r="H10">
+        <v>0.02851228973611449</v>
+      </c>
+      <c r="I10">
+        <v>0.04396892552602184</v>
+      </c>
+      <c r="J10">
+        <v>-0.01864474149524216</v>
+      </c>
+      <c r="K10">
+        <v>-0.1331799823974703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.00421603679530419</v>
+        <v>0.01763258897098247</v>
       </c>
       <c r="C11">
-        <v>-0.06998794828048094</v>
+        <v>-0.07978016578898746</v>
       </c>
       <c r="D11">
-        <v>-0.03285473313047219</v>
+        <v>-0.03897506023058465</v>
       </c>
       <c r="E11">
-        <v>-0.01836791677545867</v>
+        <v>-0.01241884800983262</v>
       </c>
       <c r="F11">
-        <v>0.01936053944710834</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.002459586558834807</v>
+      </c>
+      <c r="G11">
+        <v>0.01130774294637153</v>
+      </c>
+      <c r="H11">
+        <v>0.003074715295438771</v>
+      </c>
+      <c r="I11">
+        <v>0.02113042872437637</v>
+      </c>
+      <c r="J11">
+        <v>-0.02557658765842102</v>
+      </c>
+      <c r="K11">
+        <v>0.02610826591008687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.005459526606652441</v>
+        <v>0.01702512988539533</v>
       </c>
       <c r="C12">
-        <v>-0.04884997100831194</v>
+        <v>-0.053600012533811</v>
       </c>
       <c r="D12">
-        <v>-0.03292325528002173</v>
+        <v>-0.02687255626451593</v>
       </c>
       <c r="E12">
-        <v>-0.01961021257406741</v>
+        <v>-0.01138199797522091</v>
       </c>
       <c r="F12">
-        <v>-0.006827111532009001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.015513233171877</v>
+      </c>
+      <c r="G12">
+        <v>-0.002674762720114456</v>
+      </c>
+      <c r="H12">
+        <v>0.01830436116017648</v>
+      </c>
+      <c r="I12">
+        <v>0.02816210804542972</v>
+      </c>
+      <c r="J12">
+        <v>-0.02014884482146572</v>
+      </c>
+      <c r="K12">
+        <v>0.00983744815803537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01229958911613206</v>
+        <v>0.006338275280827609</v>
       </c>
       <c r="C13">
-        <v>-0.1241731959027295</v>
+        <v>-0.1089490416873904</v>
       </c>
       <c r="D13">
-        <v>-0.07279129851774546</v>
+        <v>-0.04356849461577211</v>
       </c>
       <c r="E13">
-        <v>0.03972622904412094</v>
+        <v>-0.009792801356376031</v>
       </c>
       <c r="F13">
-        <v>-0.05976519217985813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01962828261846819</v>
+      </c>
+      <c r="G13">
+        <v>-0.1615208521864898</v>
+      </c>
+      <c r="H13">
+        <v>0.09538261385525541</v>
+      </c>
+      <c r="I13">
+        <v>-0.0004214625297341998</v>
+      </c>
+      <c r="J13">
+        <v>-0.2129337467622394</v>
+      </c>
+      <c r="K13">
+        <v>-0.1476737297186281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.009654919726313002</v>
+        <v>0.02123149350499965</v>
       </c>
       <c r="C14">
-        <v>-0.07881702955038775</v>
+        <v>-0.07356795454283922</v>
       </c>
       <c r="D14">
-        <v>-0.04501469390844508</v>
+        <v>-0.04845208873313894</v>
       </c>
       <c r="E14">
-        <v>0.02184534220910843</v>
+        <v>0.004731423700953708</v>
       </c>
       <c r="F14">
-        <v>-0.02954911099411186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02922411593641951</v>
+      </c>
+      <c r="G14">
+        <v>-0.02860268064444911</v>
+      </c>
+      <c r="H14">
+        <v>0.07045267110951713</v>
+      </c>
+      <c r="I14">
+        <v>0.1321296066551856</v>
+      </c>
+      <c r="J14">
+        <v>-0.1512515799218539</v>
+      </c>
+      <c r="K14">
+        <v>0.03776582995133457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.001153215813507183</v>
+        <v>0.002811213237463235</v>
       </c>
       <c r="C15">
-        <v>-0.07965629447134528</v>
+        <v>-0.07272988719843212</v>
       </c>
       <c r="D15">
-        <v>-0.02688387712270813</v>
+        <v>-0.03157483839793519</v>
       </c>
       <c r="E15">
-        <v>0.03057897876868582</v>
+        <v>0.004013607640057366</v>
       </c>
       <c r="F15">
-        <v>0.01387543643750942</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03280061792080333</v>
+      </c>
+      <c r="G15">
+        <v>-0.0150165249920676</v>
+      </c>
+      <c r="H15">
+        <v>0.01990039649549934</v>
+      </c>
+      <c r="I15">
+        <v>0.0590082919317297</v>
+      </c>
+      <c r="J15">
+        <v>-0.05792527620510972</v>
+      </c>
+      <c r="K15">
+        <v>0.03222855694513227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.007349748432073931</v>
+        <v>0.01648550891199231</v>
       </c>
       <c r="C16">
-        <v>-0.05679323745968942</v>
+        <v>-0.06079394322684628</v>
       </c>
       <c r="D16">
-        <v>-0.02840079670529394</v>
+        <v>-0.02707394211348306</v>
       </c>
       <c r="E16">
-        <v>-0.015149432914564</v>
+        <v>-0.01106582057648143</v>
       </c>
       <c r="F16">
-        <v>0.002316794584112523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0003369498603654389</v>
+      </c>
+      <c r="G16">
+        <v>0.006748529231182306</v>
+      </c>
+      <c r="H16">
+        <v>0.002010446136818889</v>
+      </c>
+      <c r="I16">
+        <v>0.01464742439943435</v>
+      </c>
+      <c r="J16">
+        <v>-0.0180693006870116</v>
+      </c>
+      <c r="K16">
+        <v>0.01983193960865738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01120394417644265</v>
+        <v>0.01497858316015045</v>
       </c>
       <c r="C20">
-        <v>-0.09510021568056085</v>
+        <v>-0.08492821775363529</v>
       </c>
       <c r="D20">
-        <v>-0.03776202300957315</v>
+        <v>-0.02613375934943169</v>
       </c>
       <c r="E20">
-        <v>-0.0356431376486547</v>
+        <v>0.01014196689949551</v>
       </c>
       <c r="F20">
-        <v>0.01143938076711063</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01489285016034148</v>
+      </c>
+      <c r="G20">
+        <v>0.01885626807568978</v>
+      </c>
+      <c r="H20">
+        <v>0.02935519815876797</v>
+      </c>
+      <c r="I20">
+        <v>0.06080012774651444</v>
+      </c>
+      <c r="J20">
+        <v>-0.05259293259797941</v>
+      </c>
+      <c r="K20">
+        <v>0.01546609363697045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.0002090454280731025</v>
+        <v>0.01357628974147633</v>
       </c>
       <c r="C21">
-        <v>-0.08023834486061596</v>
+        <v>-0.06716566999887308</v>
       </c>
       <c r="D21">
-        <v>0.01175112711490177</v>
+        <v>-0.01835821671581229</v>
       </c>
       <c r="E21">
-        <v>0.0383220998652093</v>
+        <v>0.01668056269931056</v>
       </c>
       <c r="F21">
-        <v>-0.0719533912127055</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.05959337021956609</v>
+      </c>
+      <c r="G21">
+        <v>-0.07196240851819859</v>
+      </c>
+      <c r="H21">
+        <v>0.008744801590210266</v>
+      </c>
+      <c r="I21">
+        <v>0.07788092387711776</v>
+      </c>
+      <c r="J21">
+        <v>-0.1210250898622572</v>
+      </c>
+      <c r="K21">
+        <v>-0.007874886239108394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.006734653888351432</v>
+        <v>0.007644770610987784</v>
       </c>
       <c r="C22">
-        <v>-0.2327901233440971</v>
+        <v>-0.169459564176494</v>
       </c>
       <c r="D22">
-        <v>0.07301254980544042</v>
+        <v>-0.01880251572752173</v>
       </c>
       <c r="E22">
-        <v>0.3602480930935967</v>
+        <v>0.03574051175950345</v>
       </c>
       <c r="F22">
-        <v>0.2218150321162282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.359554052392851</v>
+      </c>
+      <c r="G22">
+        <v>-0.367005226739321</v>
+      </c>
+      <c r="H22">
+        <v>0.02330430462309612</v>
+      </c>
+      <c r="I22">
+        <v>-0.2686151709509897</v>
+      </c>
+      <c r="J22">
+        <v>0.2229861568462643</v>
+      </c>
+      <c r="K22">
+        <v>0.03840271204706536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.007767903106840153</v>
+        <v>0.01276783759168799</v>
       </c>
       <c r="C23">
-        <v>-0.2363086522286829</v>
+        <v>-0.172749997378782</v>
       </c>
       <c r="D23">
-        <v>0.07770871173705499</v>
+        <v>-0.01834002092991849</v>
       </c>
       <c r="E23">
-        <v>0.3544624827298298</v>
+        <v>0.03097438804160322</v>
       </c>
       <c r="F23">
-        <v>0.2189319025589714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3495819780114902</v>
+      </c>
+      <c r="G23">
+        <v>-0.3578196054416566</v>
+      </c>
+      <c r="H23">
+        <v>0.02207550427010231</v>
+      </c>
+      <c r="I23">
+        <v>-0.2525645968809168</v>
+      </c>
+      <c r="J23">
+        <v>0.205557070363188</v>
+      </c>
+      <c r="K23">
+        <v>0.04256954928725279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.004267284255752343</v>
+        <v>0.01716220517318419</v>
       </c>
       <c r="C24">
-        <v>-0.06098870865279678</v>
+        <v>-0.06399519123474663</v>
       </c>
       <c r="D24">
-        <v>-0.04464098300423971</v>
+        <v>-0.04062536137133169</v>
       </c>
       <c r="E24">
-        <v>-0.01239634063033739</v>
+        <v>-0.01327709826114452</v>
       </c>
       <c r="F24">
-        <v>0.01461198875766513</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.004272956947237704</v>
+      </c>
+      <c r="G24">
+        <v>0.006241030708766347</v>
+      </c>
+      <c r="H24">
+        <v>0.01364066129182792</v>
+      </c>
+      <c r="I24">
+        <v>0.02660240673039991</v>
+      </c>
+      <c r="J24">
+        <v>-0.03593371938109435</v>
+      </c>
+      <c r="K24">
+        <v>0.02156277717725009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.005310831937064615</v>
+        <v>0.02128719047496249</v>
       </c>
       <c r="C25">
-        <v>-0.06734958492016144</v>
+        <v>-0.06767019251053412</v>
       </c>
       <c r="D25">
-        <v>-0.02183618981134807</v>
+        <v>-0.03308405648594738</v>
       </c>
       <c r="E25">
-        <v>-0.01852346642158629</v>
+        <v>-0.01702375327856304</v>
       </c>
       <c r="F25">
-        <v>0.006109454303694268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.006754723784371971</v>
+      </c>
+      <c r="G25">
+        <v>0.0042555001209046</v>
+      </c>
+      <c r="H25">
+        <v>0.004971520308792125</v>
+      </c>
+      <c r="I25">
+        <v>0.02491064579421617</v>
+      </c>
+      <c r="J25">
+        <v>-0.03292092071897306</v>
+      </c>
+      <c r="K25">
+        <v>0.01197786382579481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.01327827245394428</v>
+        <v>0.02144596583794221</v>
       </c>
       <c r="C26">
-        <v>-0.04601221223588026</v>
+        <v>-0.05379107667441146</v>
       </c>
       <c r="D26">
-        <v>-0.08046937735181968</v>
+        <v>-0.06136489289363779</v>
       </c>
       <c r="E26">
-        <v>-0.009384876752392244</v>
+        <v>-0.01261800273309188</v>
       </c>
       <c r="F26">
-        <v>-0.03787708502629336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01060300503765674</v>
+      </c>
+      <c r="G26">
+        <v>0.009765935739395951</v>
+      </c>
+      <c r="H26">
+        <v>-0.0200985515591432</v>
+      </c>
+      <c r="I26">
+        <v>0.05005273775248681</v>
+      </c>
+      <c r="J26">
+        <v>-0.1123783861335288</v>
+      </c>
+      <c r="K26">
+        <v>0.06138325248149998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3560377418781255</v>
+        <v>0.3086875922994199</v>
       </c>
       <c r="C28">
-        <v>0.08576793059166866</v>
+        <v>0.1136553694104902</v>
       </c>
       <c r="D28">
-        <v>0.01268452832264785</v>
+        <v>0.03421959951875272</v>
       </c>
       <c r="E28">
-        <v>-0.03899213602788965</v>
+        <v>0.01302259151229423</v>
       </c>
       <c r="F28">
-        <v>-0.01387487865863122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0158544965789423</v>
+      </c>
+      <c r="G28">
+        <v>-0.0461980972480419</v>
+      </c>
+      <c r="H28">
+        <v>-0.1237938499141348</v>
+      </c>
+      <c r="I28">
+        <v>0.01705733147065792</v>
+      </c>
+      <c r="J28">
+        <v>-0.04397736715187135</v>
+      </c>
+      <c r="K28">
+        <v>-0.2077138336002642</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.006340479914879398</v>
+        <v>0.01777962984201991</v>
       </c>
       <c r="C29">
-        <v>-0.08538115534085834</v>
+        <v>-0.08249947917289174</v>
       </c>
       <c r="D29">
-        <v>-0.05260602708823896</v>
+        <v>-0.04996863148064128</v>
       </c>
       <c r="E29">
-        <v>0.007169094873254324</v>
+        <v>-0.02123312202531272</v>
       </c>
       <c r="F29">
-        <v>-0.01701574393246516</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02555259351123762</v>
+      </c>
+      <c r="G29">
+        <v>-0.02908574382324982</v>
+      </c>
+      <c r="H29">
+        <v>0.1165320493405994</v>
+      </c>
+      <c r="I29">
+        <v>0.1854551639362874</v>
+      </c>
+      <c r="J29">
+        <v>-0.2140094251257546</v>
+      </c>
+      <c r="K29">
+        <v>0.03108102978343242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02217115112845716</v>
+        <v>0.03501726425243081</v>
       </c>
       <c r="C30">
-        <v>-0.1658100388727984</v>
+        <v>-0.1413110492391569</v>
       </c>
       <c r="D30">
-        <v>-0.06514617409631228</v>
+        <v>-0.0556612452103487</v>
       </c>
       <c r="E30">
-        <v>0.04882375366883795</v>
+        <v>0.01316312057884788</v>
       </c>
       <c r="F30">
-        <v>0.03265229004000551</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04524721390256557</v>
+      </c>
+      <c r="G30">
+        <v>-0.03701443108361639</v>
+      </c>
+      <c r="H30">
+        <v>0.01523718157536998</v>
+      </c>
+      <c r="I30">
+        <v>0.04120610652858307</v>
+      </c>
+      <c r="J30">
+        <v>-0.01874911777318292</v>
+      </c>
+      <c r="K30">
+        <v>0.04675814786793426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003691012519686483</v>
+        <v>0.0147663041747555</v>
       </c>
       <c r="C31">
-        <v>-0.05211257721761087</v>
+        <v>-0.07720873095732897</v>
       </c>
       <c r="D31">
-        <v>-0.03357938535216955</v>
+        <v>-0.04152880731321486</v>
       </c>
       <c r="E31">
-        <v>-0.01990791302684689</v>
+        <v>0.0001987628137503542</v>
       </c>
       <c r="F31">
-        <v>-0.005601673564701691</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.006002124288721054</v>
+      </c>
+      <c r="G31">
+        <v>-0.003401490420294961</v>
+      </c>
+      <c r="H31">
+        <v>-0.03010235062566703</v>
+      </c>
+      <c r="I31">
+        <v>0.02550334470236973</v>
+      </c>
+      <c r="J31">
+        <v>-0.02581753497289317</v>
+      </c>
+      <c r="K31">
+        <v>0.01153685807394118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01789220766989039</v>
+        <v>0.02208162775739992</v>
       </c>
       <c r="C32">
-        <v>-0.07469716472246038</v>
+        <v>-0.05432140988198294</v>
       </c>
       <c r="D32">
-        <v>-0.01066964099230174</v>
+        <v>-0.02584622115411177</v>
       </c>
       <c r="E32">
-        <v>0.1500728405774201</v>
+        <v>-0.02058953098627387</v>
       </c>
       <c r="F32">
-        <v>-0.02228216405064514</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.01355195142359457</v>
+      </c>
+      <c r="G32">
+        <v>-0.1176157108266511</v>
+      </c>
+      <c r="H32">
+        <v>0.05467789989874559</v>
+      </c>
+      <c r="I32">
+        <v>0.06651543062387161</v>
+      </c>
+      <c r="J32">
+        <v>-0.1735927299875293</v>
+      </c>
+      <c r="K32">
+        <v>-0.241848386766112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.008224071896797759</v>
+        <v>0.01745890211762215</v>
       </c>
       <c r="C33">
-        <v>-0.09581967818254208</v>
+        <v>-0.1017929410240248</v>
       </c>
       <c r="D33">
-        <v>-0.0614328836549712</v>
+        <v>-0.05212324107772108</v>
       </c>
       <c r="E33">
-        <v>0.005290775507837167</v>
+        <v>0.006670964277907728</v>
       </c>
       <c r="F33">
-        <v>0.007180706598557579</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02125165148301936</v>
+      </c>
+      <c r="G33">
+        <v>-0.01153169248106213</v>
+      </c>
+      <c r="H33">
+        <v>0.0201588556951632</v>
+      </c>
+      <c r="I33">
+        <v>0.03033427640731514</v>
+      </c>
+      <c r="J33">
+        <v>-0.05626546146252433</v>
+      </c>
+      <c r="K33">
+        <v>-0.01725186198949714</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.003730418527367794</v>
+        <v>0.01715788377005086</v>
       </c>
       <c r="C34">
-        <v>-0.05253661894787297</v>
+        <v>-0.05001888204167308</v>
       </c>
       <c r="D34">
-        <v>-0.02329644801005937</v>
+        <v>-0.02145855104953689</v>
       </c>
       <c r="E34">
-        <v>-0.009549496237599963</v>
+        <v>-0.01558902093883911</v>
       </c>
       <c r="F34">
-        <v>-0.01527830708592383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.005383396943565893</v>
+      </c>
+      <c r="G34">
+        <v>0.006256240935466935</v>
+      </c>
+      <c r="H34">
+        <v>0.01828733431373701</v>
+      </c>
+      <c r="I34">
+        <v>0.02732427485470519</v>
+      </c>
+      <c r="J34">
+        <v>0.006882450958345438</v>
+      </c>
+      <c r="K34">
+        <v>0.0108566424759162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001334502267052355</v>
+        <v>0.01050242825038754</v>
       </c>
       <c r="C35">
-        <v>-0.03169608793107779</v>
+        <v>-0.04676962771665134</v>
       </c>
       <c r="D35">
-        <v>-0.01172473861489753</v>
+        <v>-0.02267972484789093</v>
       </c>
       <c r="E35">
-        <v>0.003478341610825058</v>
+        <v>0.006205900285120159</v>
       </c>
       <c r="F35">
-        <v>-0.003258914092616778</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.003617051419033667</v>
+      </c>
+      <c r="G35">
+        <v>-0.01362532695464748</v>
+      </c>
+      <c r="H35">
+        <v>0.04348301579543865</v>
+      </c>
+      <c r="I35">
+        <v>0.1115642518727698</v>
+      </c>
+      <c r="J35">
+        <v>-0.1080363241765524</v>
+      </c>
+      <c r="K35">
+        <v>0.004864402609932484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.01148994327212934</v>
+        <v>0.01361115150227518</v>
       </c>
       <c r="C36">
-        <v>-0.05195935283378565</v>
+        <v>-0.04590439253303496</v>
       </c>
       <c r="D36">
-        <v>-0.05905960515124765</v>
+        <v>-0.04371790067053804</v>
       </c>
       <c r="E36">
-        <v>-0.00354602136641546</v>
+        <v>0.0065396217789173</v>
       </c>
       <c r="F36">
-        <v>-0.01237963582586635</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0139849529767911</v>
+      </c>
+      <c r="G36">
+        <v>-0.01148738293575465</v>
+      </c>
+      <c r="H36">
+        <v>-0.01717946257087864</v>
+      </c>
+      <c r="I36">
+        <v>0.03737443497045664</v>
+      </c>
+      <c r="J36">
+        <v>-0.08356995532082633</v>
+      </c>
+      <c r="K36">
+        <v>0.02106483681543122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.03413970656799217</v>
+        <v>0.01066584098558973</v>
       </c>
       <c r="C38">
-        <v>-0.04650861477362705</v>
+        <v>-0.05652163816704431</v>
       </c>
       <c r="D38">
-        <v>-0.03991463504897942</v>
+        <v>-0.03686873213753417</v>
       </c>
       <c r="E38">
-        <v>-0.01448180505774111</v>
+        <v>0.04409716129914248</v>
       </c>
       <c r="F38">
-        <v>-0.002914159485885666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.02816976853671409</v>
+      </c>
+      <c r="G38">
+        <v>0.004757195234930079</v>
+      </c>
+      <c r="H38">
+        <v>0.01455144188046546</v>
+      </c>
+      <c r="I38">
+        <v>0.04360019673232906</v>
+      </c>
+      <c r="J38">
+        <v>-0.06556383328181691</v>
+      </c>
+      <c r="K38">
+        <v>-0.07067734088432309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.001010293639323358</v>
+        <v>0.02486660901139083</v>
       </c>
       <c r="C39">
-        <v>-0.1285485954728325</v>
+        <v>-0.1301669238414117</v>
       </c>
       <c r="D39">
-        <v>-0.06048095839557209</v>
+        <v>-0.05948172849012828</v>
       </c>
       <c r="E39">
-        <v>-0.008492080854980566</v>
+        <v>0.007794618208634528</v>
       </c>
       <c r="F39">
-        <v>-0.004495160168204427</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01082831754327577</v>
+      </c>
+      <c r="G39">
+        <v>0.002178106459858503</v>
+      </c>
+      <c r="H39">
+        <v>0.0379486567785819</v>
+      </c>
+      <c r="I39">
+        <v>0.04871941784985449</v>
+      </c>
+      <c r="J39">
+        <v>-0.01296290304633868</v>
+      </c>
+      <c r="K39">
+        <v>0.09027241153901092</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.004491257049962466</v>
+        <v>0.01444107118909052</v>
       </c>
       <c r="C40">
-        <v>-0.04394226699554572</v>
+        <v>-0.05948862406105115</v>
       </c>
       <c r="D40">
-        <v>-0.03367017527575023</v>
+        <v>-0.04487778666178294</v>
       </c>
       <c r="E40">
-        <v>0.1090153580050049</v>
+        <v>-0.004112817659757131</v>
       </c>
       <c r="F40">
-        <v>0.06732728134169057</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.004841182595564915</v>
+      </c>
+      <c r="G40">
+        <v>-0.03400674433872111</v>
+      </c>
+      <c r="H40">
+        <v>0.1469309476914156</v>
+      </c>
+      <c r="I40">
+        <v>0.02632975310663328</v>
+      </c>
+      <c r="J40">
+        <v>-0.04010612554464201</v>
+      </c>
+      <c r="K40">
+        <v>0.02945966720679247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01393435758081827</v>
+        <v>0.02267887475833029</v>
       </c>
       <c r="C41">
-        <v>-0.02941198599918065</v>
+        <v>-0.04815181796158444</v>
       </c>
       <c r="D41">
-        <v>-0.005305031280934315</v>
+        <v>-0.01514508169589283</v>
       </c>
       <c r="E41">
-        <v>-0.01279616953965574</v>
+        <v>-0.002420411391108133</v>
       </c>
       <c r="F41">
-        <v>-0.0141543182539912</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.007680766367844449</v>
+      </c>
+      <c r="G41">
+        <v>0.01278816815097021</v>
+      </c>
+      <c r="H41">
+        <v>-0.0103435682189913</v>
+      </c>
+      <c r="I41">
+        <v>0.00663170665120272</v>
+      </c>
+      <c r="J41">
+        <v>-0.02434773038239357</v>
+      </c>
+      <c r="K41">
+        <v>-0.02497288352968861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.005672098259099544</v>
+        <v>0.01924732144765147</v>
       </c>
       <c r="C43">
-        <v>-0.0302603888610157</v>
+        <v>-0.04522257229630706</v>
       </c>
       <c r="D43">
-        <v>-0.02742833070512928</v>
+        <v>-0.0294166574406604</v>
       </c>
       <c r="E43">
-        <v>-0.00505324751542667</v>
+        <v>0.001643114695097423</v>
       </c>
       <c r="F43">
-        <v>0.001984335575574078</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.007317205980829942</v>
+      </c>
+      <c r="G43">
+        <v>0.01067473859197749</v>
+      </c>
+      <c r="H43">
+        <v>-0.00231129780482455</v>
+      </c>
+      <c r="I43">
+        <v>0.01716843507644524</v>
+      </c>
+      <c r="J43">
+        <v>-0.0311181993597465</v>
+      </c>
+      <c r="K43">
+        <v>0.003811180608041768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01599809364490386</v>
+        <v>0.01786519566246816</v>
       </c>
       <c r="C44">
-        <v>-0.1023735970004497</v>
+        <v>-0.09806536688809725</v>
       </c>
       <c r="D44">
-        <v>-0.04283522565795309</v>
+        <v>-0.05750999510867913</v>
       </c>
       <c r="E44">
-        <v>0.03349122829525301</v>
+        <v>0.02701682381074706</v>
       </c>
       <c r="F44">
-        <v>0.03875950602934931</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.05833678151729432</v>
+      </c>
+      <c r="G44">
+        <v>-0.03520484589012489</v>
+      </c>
+      <c r="H44">
+        <v>0.04403589465377913</v>
+      </c>
+      <c r="I44">
+        <v>0.01539953649906285</v>
+      </c>
+      <c r="J44">
+        <v>-0.0504607434603931</v>
+      </c>
+      <c r="K44">
+        <v>0.04999608553592838</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.009963028820280505</v>
+        <v>0.005008742429430046</v>
       </c>
       <c r="C46">
-        <v>-0.06894368890884836</v>
+        <v>-0.06634541188559036</v>
       </c>
       <c r="D46">
-        <v>-0.054569669764068</v>
+        <v>-0.02909548170917961</v>
       </c>
       <c r="E46">
-        <v>0.01391679100261461</v>
+        <v>0.01205428245928192</v>
       </c>
       <c r="F46">
-        <v>-0.006622229606155655</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01032069355059324</v>
+      </c>
+      <c r="G46">
+        <v>-0.001634049796565444</v>
+      </c>
+      <c r="H46">
+        <v>0.02068592277228135</v>
+      </c>
+      <c r="I46">
+        <v>0.03727050281035366</v>
+      </c>
+      <c r="J46">
+        <v>-0.09125766545032464</v>
+      </c>
+      <c r="K46">
+        <v>0.0250026186561734</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.009783906756524118</v>
+        <v>0.02185051863334494</v>
       </c>
       <c r="C47">
-        <v>-0.06102406360835478</v>
+        <v>-0.0740295319952665</v>
       </c>
       <c r="D47">
-        <v>-0.04667375702703753</v>
+        <v>-0.04430877044800193</v>
       </c>
       <c r="E47">
-        <v>-0.03170719416193334</v>
+        <v>-0.01547340557743312</v>
       </c>
       <c r="F47">
-        <v>-0.0391142049023216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.005754965865091587</v>
+      </c>
+      <c r="G47">
+        <v>0.007086593798110902</v>
+      </c>
+      <c r="H47">
+        <v>-0.003885065406803129</v>
+      </c>
+      <c r="I47">
+        <v>0.0377461556773578</v>
+      </c>
+      <c r="J47">
+        <v>-0.06068861520241579</v>
+      </c>
+      <c r="K47">
+        <v>-0.01620219857168997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01221622912559053</v>
+        <v>0.01512614788160535</v>
       </c>
       <c r="C48">
-        <v>-0.05501803404605612</v>
+        <v>-0.04557689545485356</v>
       </c>
       <c r="D48">
-        <v>-0.06766986190032069</v>
+        <v>-0.05233989223859806</v>
       </c>
       <c r="E48">
-        <v>-0.01221688723347124</v>
+        <v>-0.01611328918170447</v>
       </c>
       <c r="F48">
-        <v>-0.01262047911940173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02828701277573082</v>
+      </c>
+      <c r="G48">
+        <v>-0.008582099816320641</v>
+      </c>
+      <c r="H48">
+        <v>-0.02316446181788565</v>
+      </c>
+      <c r="I48">
+        <v>0.05501704627817208</v>
+      </c>
+      <c r="J48">
+        <v>-0.1151664823672293</v>
+      </c>
+      <c r="K48">
+        <v>0.0424618902164181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02275416084731246</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.05085265593424896</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.01179806500625257</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02987371991754163</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.03564399853040889</v>
+      </c>
+      <c r="G49">
+        <v>0.06545339322972242</v>
+      </c>
+      <c r="H49">
+        <v>0.07206357009587631</v>
+      </c>
+      <c r="I49">
+        <v>0.04599432179032476</v>
+      </c>
+      <c r="J49">
+        <v>0.1098983157201701</v>
+      </c>
+      <c r="K49">
+        <v>0.04014022965991035</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.003223545908266235</v>
+        <v>0.01568911700792855</v>
       </c>
       <c r="C50">
-        <v>-0.05985522042751379</v>
+        <v>-0.07505240125016366</v>
       </c>
       <c r="D50">
-        <v>-0.03129660552865584</v>
+        <v>-0.03231412236408979</v>
       </c>
       <c r="E50">
-        <v>0.002780831183018439</v>
+        <v>-0.009012625892061567</v>
       </c>
       <c r="F50">
-        <v>0.009189415177419322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0217956184213368</v>
+      </c>
+      <c r="G50">
+        <v>-0.007329023667370899</v>
+      </c>
+      <c r="H50">
+        <v>-0.01038300745301934</v>
+      </c>
+      <c r="I50">
+        <v>0.05270744208091897</v>
+      </c>
+      <c r="J50">
+        <v>-0.04288532271399358</v>
+      </c>
+      <c r="K50">
+        <v>-0.04978521158400451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.002110634220254908</v>
+        <v>-0.005219661487846296</v>
       </c>
       <c r="C51">
-        <v>-0.07250009982015358</v>
+        <v>-0.03488953163997491</v>
       </c>
       <c r="D51">
-        <v>-0.04534520442113624</v>
+        <v>-0.02571653806598587</v>
       </c>
       <c r="E51">
-        <v>0.03512001105751304</v>
+        <v>0.02400379948877945</v>
       </c>
       <c r="F51">
-        <v>0.01246582876626562</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0103415435736546</v>
+      </c>
+      <c r="G51">
+        <v>-0.02488166880520698</v>
+      </c>
+      <c r="H51">
+        <v>0.01365413710949653</v>
+      </c>
+      <c r="I51">
+        <v>0.03707467487044875</v>
+      </c>
+      <c r="J51">
+        <v>-0.1057082983508984</v>
+      </c>
+      <c r="K51">
+        <v>0.02387840019780603</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03658741892868823</v>
+        <v>0.06101398982341076</v>
       </c>
       <c r="C53">
-        <v>-0.1049442067738472</v>
+        <v>-0.1312436973643193</v>
       </c>
       <c r="D53">
-        <v>-0.06732915851818776</v>
+        <v>-0.05724427251403087</v>
       </c>
       <c r="E53">
-        <v>-0.1202477807250696</v>
+        <v>-0.02747193569924382</v>
       </c>
       <c r="F53">
-        <v>-0.03460731672738691</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04851900875454022</v>
+      </c>
+      <c r="G53">
+        <v>0.03958046083641803</v>
+      </c>
+      <c r="H53">
+        <v>-0.08837618087495798</v>
+      </c>
+      <c r="I53">
+        <v>-0.0185906087664837</v>
+      </c>
+      <c r="J53">
+        <v>0.0200554891207631</v>
+      </c>
+      <c r="K53">
+        <v>-0.02268735223046098</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.004233001717892843</v>
+        <v>0.01668197015822378</v>
       </c>
       <c r="C54">
-        <v>-0.07153581842386474</v>
+        <v>-0.07086470370210676</v>
       </c>
       <c r="D54">
-        <v>-0.01537100244571152</v>
+        <v>-0.01217223380261159</v>
       </c>
       <c r="E54">
-        <v>-0.01955963955504005</v>
+        <v>-0.009715636208389904</v>
       </c>
       <c r="F54">
-        <v>0.006848366807752884</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.002286214374497302</v>
+      </c>
+      <c r="G54">
+        <v>0.003269418611362625</v>
+      </c>
+      <c r="H54">
+        <v>0.005174328287422295</v>
+      </c>
+      <c r="I54">
+        <v>0.02525644179454256</v>
+      </c>
+      <c r="J54">
+        <v>-0.05330937341813133</v>
+      </c>
+      <c r="K54">
+        <v>0.03166205069003796</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01244873254776609</v>
+        <v>0.03096265085998969</v>
       </c>
       <c r="C55">
-        <v>-0.06999350379177299</v>
+        <v>-0.08191628282255811</v>
       </c>
       <c r="D55">
-        <v>-0.06145940120961672</v>
+        <v>-0.05314331751624422</v>
       </c>
       <c r="E55">
-        <v>-0.06148075929834276</v>
+        <v>-0.02604595119048036</v>
       </c>
       <c r="F55">
-        <v>-0.0262233204222933</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02549370981168106</v>
+      </c>
+      <c r="G55">
+        <v>0.03228153469550615</v>
+      </c>
+      <c r="H55">
+        <v>-0.03771301514040086</v>
+      </c>
+      <c r="I55">
+        <v>-0.01015745103033105</v>
+      </c>
+      <c r="J55">
+        <v>-0.00300827158526498</v>
+      </c>
+      <c r="K55">
+        <v>0.007879063119324695</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.0115578448393328</v>
+        <v>0.04986266211904064</v>
       </c>
       <c r="C56">
-        <v>-0.1400657588285192</v>
+        <v>-0.1522306959245082</v>
       </c>
       <c r="D56">
-        <v>-0.07000672421243319</v>
+        <v>-0.08087968064435948</v>
       </c>
       <c r="E56">
-        <v>-0.09024958296299559</v>
+        <v>-0.05173321575823716</v>
       </c>
       <c r="F56">
-        <v>-0.04663400159836412</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09401427822752649</v>
+      </c>
+      <c r="G56">
+        <v>0.04930479132137102</v>
+      </c>
+      <c r="H56">
+        <v>-0.1561083179257918</v>
+      </c>
+      <c r="I56">
+        <v>-0.01970534378787037</v>
+      </c>
+      <c r="J56">
+        <v>0.0449033349420887</v>
+      </c>
+      <c r="K56">
+        <v>0.001296686953057594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02498295065885379</v>
+        <v>0.0178190489116908</v>
       </c>
       <c r="C58">
-        <v>-0.2800341537284564</v>
+        <v>-0.171216220070396</v>
       </c>
       <c r="D58">
-        <v>0.02207602091014779</v>
+        <v>-0.04223437099686819</v>
       </c>
       <c r="E58">
-        <v>0.1980236157056138</v>
+        <v>0.1313596117746483</v>
       </c>
       <c r="F58">
-        <v>0.1742545079208229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2092484397336593</v>
+      </c>
+      <c r="G58">
+        <v>-0.2560672711273125</v>
+      </c>
+      <c r="H58">
+        <v>-0.07593248140271823</v>
+      </c>
+      <c r="I58">
+        <v>-0.02630627039054828</v>
+      </c>
+      <c r="J58">
+        <v>-0.1502323380672145</v>
+      </c>
+      <c r="K58">
+        <v>-0.1067923954814442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2913536158886987</v>
+        <v>0.2885205086969385</v>
       </c>
       <c r="C59">
-        <v>0.002882852826800599</v>
+        <v>0.05319272147455287</v>
       </c>
       <c r="D59">
-        <v>0.002944398188065333</v>
+        <v>0.006179822658968536</v>
       </c>
       <c r="E59">
-        <v>0.05893276421539096</v>
+        <v>0.006108175160468191</v>
       </c>
       <c r="F59">
-        <v>-0.0555066989214834</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01585940205825366</v>
+      </c>
+      <c r="G59">
+        <v>-0.05578157381377314</v>
+      </c>
+      <c r="H59">
+        <v>-0.005050127517354608</v>
+      </c>
+      <c r="I59">
+        <v>-0.01905889281630228</v>
+      </c>
+      <c r="J59">
+        <v>0.007266295844034544</v>
+      </c>
+      <c r="K59">
+        <v>-0.02739737292115044</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1163631865108389</v>
+        <v>0.1534134150140474</v>
       </c>
       <c r="C60">
-        <v>-0.1445014577985602</v>
+        <v>-0.1595276368597158</v>
       </c>
       <c r="D60">
-        <v>-0.07059420988657324</v>
+        <v>-0.04111965061018998</v>
       </c>
       <c r="E60">
-        <v>-0.1621294576901618</v>
+        <v>-0.1226649161326709</v>
       </c>
       <c r="F60">
-        <v>-0.1842514970133614</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.09531903842449177</v>
+      </c>
+      <c r="G60">
+        <v>0.09750960659053579</v>
+      </c>
+      <c r="H60">
+        <v>0.2523629354743703</v>
+      </c>
+      <c r="I60">
+        <v>-0.1745579502954119</v>
+      </c>
+      <c r="J60">
+        <v>0.1221652009582283</v>
+      </c>
+      <c r="K60">
+        <v>0.02753939678197989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.003280348958516242</v>
+        <v>0.0246920866513842</v>
       </c>
       <c r="C61">
-        <v>-0.08744463462713875</v>
+        <v>-0.09860426590429533</v>
       </c>
       <c r="D61">
-        <v>-0.06993738265446048</v>
+        <v>-0.05392781413233091</v>
       </c>
       <c r="E61">
-        <v>-0.03335337877932432</v>
+        <v>-0.01043810038830494</v>
       </c>
       <c r="F61">
-        <v>-0.01658583458288687</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01315916493994171</v>
+      </c>
+      <c r="G61">
+        <v>0.02001750249408554</v>
+      </c>
+      <c r="H61">
+        <v>0.02182796898914276</v>
+      </c>
+      <c r="I61">
+        <v>0.05720225108898815</v>
+      </c>
+      <c r="J61">
+        <v>-0.02186515325477485</v>
+      </c>
+      <c r="K61">
+        <v>0.03509233013432625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.00255589087648207</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01497146882135132</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003581051324470824</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.02459740863946635</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.02584480056397801</v>
+      </c>
+      <c r="G62">
+        <v>-0.006162840870002843</v>
+      </c>
+      <c r="H62">
+        <v>0.01614637779284148</v>
+      </c>
+      <c r="I62">
+        <v>0.01752995433089649</v>
+      </c>
+      <c r="J62">
+        <v>-0.008646820090032875</v>
+      </c>
+      <c r="K62">
+        <v>-0.006676660178487111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001943829905922385</v>
+        <v>0.02676533220274496</v>
       </c>
       <c r="C63">
-        <v>-0.05737528252042425</v>
+        <v>-0.0632903074521006</v>
       </c>
       <c r="D63">
-        <v>-0.03878392581575414</v>
+        <v>-0.05898725971898264</v>
       </c>
       <c r="E63">
-        <v>-0.01329830004776368</v>
+        <v>-0.007526919624321821</v>
       </c>
       <c r="F63">
-        <v>0.008344561350437865</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.005798120379078205</v>
+      </c>
+      <c r="G63">
+        <v>0.004875349374485286</v>
+      </c>
+      <c r="H63">
+        <v>-0.01017454999260422</v>
+      </c>
+      <c r="I63">
+        <v>0.0507904167100077</v>
+      </c>
+      <c r="J63">
+        <v>-0.04496734163016923</v>
+      </c>
+      <c r="K63">
+        <v>0.0215533290244151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.002965294782025181</v>
+        <v>0.01833306030379318</v>
       </c>
       <c r="C64">
-        <v>-0.0964649873846208</v>
+        <v>-0.09397478351891615</v>
       </c>
       <c r="D64">
-        <v>-0.07499222545165909</v>
+        <v>-0.03526017606170737</v>
       </c>
       <c r="E64">
-        <v>-0.003196472450771059</v>
+        <v>-0.02478558392908661</v>
       </c>
       <c r="F64">
-        <v>0.02694522191136996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.05074220591901803</v>
+      </c>
+      <c r="G64">
+        <v>-0.009332550485117268</v>
+      </c>
+      <c r="H64">
+        <v>0.04456543726693397</v>
+      </c>
+      <c r="I64">
+        <v>0.0262814752810231</v>
+      </c>
+      <c r="J64">
+        <v>-0.03591320193928028</v>
+      </c>
+      <c r="K64">
+        <v>0.08994762670910779</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01388018739479535</v>
+        <v>0.03320457688297068</v>
       </c>
       <c r="C65">
-        <v>-0.08793248287484255</v>
+        <v>-0.09348755798235488</v>
       </c>
       <c r="D65">
-        <v>-0.02871127062710916</v>
+        <v>-0.02231171898661573</v>
       </c>
       <c r="E65">
-        <v>0.01941798566243349</v>
+        <v>0.01251041104218841</v>
       </c>
       <c r="F65">
-        <v>0.001602647818242751</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.003308505336767088</v>
+      </c>
+      <c r="G65">
+        <v>0.009485275606847332</v>
+      </c>
+      <c r="H65">
+        <v>0.08592876251146064</v>
+      </c>
+      <c r="I65">
+        <v>-0.01117380332345438</v>
+      </c>
+      <c r="J65">
+        <v>-0.004325514061494226</v>
+      </c>
+      <c r="K65">
+        <v>0.06618738791205402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.0002936083909099789</v>
+        <v>0.02285164933327626</v>
       </c>
       <c r="C66">
-        <v>-0.1755564583304554</v>
+        <v>-0.172064696547991</v>
       </c>
       <c r="D66">
-        <v>-0.05144713957829266</v>
+        <v>-0.05098096098665716</v>
       </c>
       <c r="E66">
-        <v>0.02531140544380545</v>
+        <v>0.01121192144938569</v>
       </c>
       <c r="F66">
-        <v>-0.01580444283321091</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01143517315112141</v>
+      </c>
+      <c r="G66">
+        <v>-0.009650449642167418</v>
+      </c>
+      <c r="H66">
+        <v>0.02854422288004748</v>
+      </c>
+      <c r="I66">
+        <v>0.06021117955652296</v>
+      </c>
+      <c r="J66">
+        <v>-0.01895645185770418</v>
+      </c>
+      <c r="K66">
+        <v>0.06567749934959233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.03421235584203433</v>
+        <v>0.02024969836697472</v>
       </c>
       <c r="C67">
-        <v>-0.02385052316528078</v>
+        <v>-0.04960729450382459</v>
       </c>
       <c r="D67">
-        <v>-0.05472093048293401</v>
+        <v>-0.03843117974789393</v>
       </c>
       <c r="E67">
-        <v>-0.05342261232156627</v>
+        <v>0.0347901703621722</v>
       </c>
       <c r="F67">
-        <v>-0.0162589836936201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.003188416537761652</v>
+      </c>
+      <c r="G67">
+        <v>0.03124492900635747</v>
+      </c>
+      <c r="H67">
+        <v>0.03871836116168728</v>
+      </c>
+      <c r="I67">
+        <v>0.01171821652501952</v>
+      </c>
+      <c r="J67">
+        <v>-0.0627764469373573</v>
+      </c>
+      <c r="K67">
+        <v>-0.0544277498344229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2945375436320496</v>
+        <v>0.2927952459575468</v>
       </c>
       <c r="C68">
-        <v>0.02700234255797395</v>
+        <v>0.07925286841773481</v>
       </c>
       <c r="D68">
-        <v>-0.007230734264337671</v>
+        <v>0.02731522779708415</v>
       </c>
       <c r="E68">
-        <v>0.03029048334433898</v>
+        <v>-0.01498553486496323</v>
       </c>
       <c r="F68">
-        <v>-0.00303438514502443</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02062109444043597</v>
+      </c>
+      <c r="G68">
+        <v>-0.03528512988612213</v>
+      </c>
+      <c r="H68">
+        <v>-0.02430392566406456</v>
+      </c>
+      <c r="I68">
+        <v>0.01354796017740184</v>
+      </c>
+      <c r="J68">
+        <v>-0.03277323134833383</v>
+      </c>
+      <c r="K68">
+        <v>-0.03823054524791194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.009799779901473247</v>
+        <v>0.01031976533658162</v>
       </c>
       <c r="C69">
-        <v>-0.05958095206794194</v>
+        <v>-0.0480704038528077</v>
       </c>
       <c r="D69">
-        <v>-0.0513572078961425</v>
+        <v>-0.02612413921117298</v>
       </c>
       <c r="E69">
-        <v>-0.03812603259814128</v>
+        <v>0.002117777048038173</v>
       </c>
       <c r="F69">
-        <v>-0.005339101749415627</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0125590481986795</v>
+      </c>
+      <c r="G69">
+        <v>0.004441373675015745</v>
+      </c>
+      <c r="H69">
+        <v>0.01612415013370536</v>
+      </c>
+      <c r="I69">
+        <v>0.003279550725236652</v>
+      </c>
+      <c r="J69">
+        <v>-0.03501822871486774</v>
+      </c>
+      <c r="K69">
+        <v>-0.02690785124950324</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2869181755674742</v>
+        <v>0.2749734351983941</v>
       </c>
       <c r="C71">
-        <v>0.03971062204508854</v>
+        <v>0.07997753083795647</v>
       </c>
       <c r="D71">
-        <v>0.005186083191363012</v>
+        <v>0.02244839753720613</v>
       </c>
       <c r="E71">
-        <v>0.0356272598790404</v>
+        <v>0.0121175745607475</v>
       </c>
       <c r="F71">
-        <v>0.02829883376085822</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04744536129339509</v>
+      </c>
+      <c r="G71">
+        <v>-0.04574119903258041</v>
+      </c>
+      <c r="H71">
+        <v>-0.02794852158024302</v>
+      </c>
+      <c r="I71">
+        <v>0.0146884038605581</v>
+      </c>
+      <c r="J71">
+        <v>-0.05312368331105406</v>
+      </c>
+      <c r="K71">
+        <v>-0.1096812532877498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.01165294977613674</v>
+        <v>0.05660202084915109</v>
       </c>
       <c r="C72">
-        <v>-0.1470275657118274</v>
+        <v>-0.1383974087325718</v>
       </c>
       <c r="D72">
-        <v>-0.07002468907772312</v>
+        <v>-0.05205562098884676</v>
       </c>
       <c r="E72">
-        <v>-0.01402693873089652</v>
+        <v>-0.04730658032997521</v>
       </c>
       <c r="F72">
-        <v>0.04739430350891313</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02499759894835474</v>
+      </c>
+      <c r="G72">
+        <v>0.02262273895061747</v>
+      </c>
+      <c r="H72">
+        <v>-0.009473869100458736</v>
+      </c>
+      <c r="I72">
+        <v>0.0301615568842802</v>
+      </c>
+      <c r="J72">
+        <v>-0.03655276331508024</v>
+      </c>
+      <c r="K72">
+        <v>0.103136267702039</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.08508644316915438</v>
+        <v>0.1577253222869331</v>
       </c>
       <c r="C73">
-        <v>-0.1189742110426449</v>
+        <v>-0.1983150799038302</v>
       </c>
       <c r="D73">
-        <v>-0.1038473149443009</v>
+        <v>-0.08406366074324403</v>
       </c>
       <c r="E73">
-        <v>-0.2463901373901548</v>
+        <v>-0.07810239186192697</v>
       </c>
       <c r="F73">
-        <v>-0.1937827007138572</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1295399232177283</v>
+      </c>
+      <c r="G73">
+        <v>0.1926601702509104</v>
+      </c>
+      <c r="H73">
+        <v>0.393116097631274</v>
+      </c>
+      <c r="I73">
+        <v>-0.2273190797049139</v>
+      </c>
+      <c r="J73">
+        <v>0.1444536805583187</v>
+      </c>
+      <c r="K73">
+        <v>-0.1382014454522919</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01384118163720756</v>
+        <v>0.03864023897817209</v>
       </c>
       <c r="C74">
-        <v>-0.08174774965394047</v>
+        <v>-0.09756499921836072</v>
       </c>
       <c r="D74">
-        <v>-0.07151497515607189</v>
+        <v>-0.0439689856733111</v>
       </c>
       <c r="E74">
-        <v>-0.06859322745982727</v>
+        <v>-0.02379809114804391</v>
       </c>
       <c r="F74">
-        <v>-0.03087856891567345</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.004309122383556132</v>
+      </c>
+      <c r="G74">
+        <v>0.03199675034317777</v>
+      </c>
+      <c r="H74">
+        <v>-0.0565381130973105</v>
+      </c>
+      <c r="I74">
+        <v>-0.01679268954137575</v>
+      </c>
+      <c r="J74">
+        <v>-0.02584525054909638</v>
+      </c>
+      <c r="K74">
+        <v>0.01709895946498383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03488468480902273</v>
+        <v>0.06513069866529174</v>
       </c>
       <c r="C75">
-        <v>-0.1406537976067126</v>
+        <v>-0.1634153359051432</v>
       </c>
       <c r="D75">
-        <v>-0.0691199422614462</v>
+        <v>-0.08359880952214944</v>
       </c>
       <c r="E75">
-        <v>-0.1484116370305964</v>
+        <v>-0.0410373695680172</v>
       </c>
       <c r="F75">
-        <v>-0.02128726231034936</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.02756335461960659</v>
+      </c>
+      <c r="G75">
+        <v>0.1050694511500394</v>
+      </c>
+      <c r="H75">
+        <v>-0.2125325353368374</v>
+      </c>
+      <c r="I75">
+        <v>0.02953478389253337</v>
+      </c>
+      <c r="J75">
+        <v>0.04454716887681463</v>
+      </c>
+      <c r="K75">
+        <v>-0.1383647521597596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.009581030454184819</v>
+        <v>0.0460124057688919</v>
       </c>
       <c r="C76">
-        <v>-0.1028473512517316</v>
+        <v>-0.124852861284856</v>
       </c>
       <c r="D76">
-        <v>-0.06703263341470715</v>
+        <v>-0.0746098720562576</v>
       </c>
       <c r="E76">
-        <v>-0.08616566367267817</v>
+        <v>-0.02064477728035299</v>
       </c>
       <c r="F76">
-        <v>-0.03955501335340245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.05528167285765904</v>
+      </c>
+      <c r="G76">
+        <v>0.06108289921390033</v>
+      </c>
+      <c r="H76">
+        <v>-0.07508540310723857</v>
+      </c>
+      <c r="I76">
+        <v>0.01465538028104535</v>
+      </c>
+      <c r="J76">
+        <v>0.04468088227854176</v>
+      </c>
+      <c r="K76">
+        <v>0.02462883747919516</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1089882785725419</v>
+        <v>0.05403885468986595</v>
       </c>
       <c r="C77">
-        <v>-0.3645842998254212</v>
+        <v>-0.4024210755579382</v>
       </c>
       <c r="D77">
-        <v>0.84838128785601</v>
+        <v>0.8985069525820444</v>
       </c>
       <c r="E77">
-        <v>-0.277142281591663</v>
+        <v>-0.008122049374569541</v>
       </c>
       <c r="F77">
-        <v>-0.03760197651576404</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01254672538180164</v>
+      </c>
+      <c r="G77">
+        <v>0.06941665390332276</v>
+      </c>
+      <c r="H77">
+        <v>-0.03816746577836388</v>
+      </c>
+      <c r="I77">
+        <v>0.08601088639620538</v>
+      </c>
+      <c r="J77">
+        <v>-0.0009387499366865574</v>
+      </c>
+      <c r="K77">
+        <v>-0.02312115210366505</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02825152817051331</v>
+        <v>0.03862251213204496</v>
       </c>
       <c r="C78">
-        <v>-0.1221317365888279</v>
+        <v>-0.112017532357642</v>
       </c>
       <c r="D78">
-        <v>-0.1644729066486144</v>
+        <v>-0.092721303889806</v>
       </c>
       <c r="E78">
-        <v>0.06918484185174671</v>
+        <v>0.03182256863838085</v>
       </c>
       <c r="F78">
-        <v>-0.1238796095864413</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.0401397208681895</v>
+      </c>
+      <c r="G78">
+        <v>-0.0179472373447528</v>
+      </c>
+      <c r="H78">
+        <v>-0.1174408872673207</v>
+      </c>
+      <c r="I78">
+        <v>-0.003898151701170239</v>
+      </c>
+      <c r="J78">
+        <v>-0.06395582186087721</v>
+      </c>
+      <c r="K78">
+        <v>0.07199962204100349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02156045271694126</v>
+        <v>0.05825934746442588</v>
       </c>
       <c r="C79">
-        <v>-0.1549286305796763</v>
+        <v>-0.1398565573154428</v>
       </c>
       <c r="D79">
-        <v>-0.1122075658710836</v>
+        <v>-0.06783527374876094</v>
       </c>
       <c r="E79">
-        <v>-0.109894039734026</v>
+        <v>-0.02181302518141177</v>
       </c>
       <c r="F79">
-        <v>-0.07189224818162207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.05594223310551764</v>
+      </c>
+      <c r="G79">
+        <v>0.03916821044079281</v>
+      </c>
+      <c r="H79">
+        <v>-0.2668629729607359</v>
+      </c>
+      <c r="I79">
+        <v>-0.009772302141549435</v>
+      </c>
+      <c r="J79">
+        <v>-0.02677369070627092</v>
+      </c>
+      <c r="K79">
+        <v>-0.05745582300762807</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.004536627100853677</v>
+        <v>0.01970265043003873</v>
       </c>
       <c r="C80">
-        <v>-0.0629738516362176</v>
+        <v>-0.04606891304438596</v>
       </c>
       <c r="D80">
-        <v>-0.03071542424280897</v>
+        <v>-0.03741865839828855</v>
       </c>
       <c r="E80">
-        <v>0.04042099810398641</v>
+        <v>0.009989224267208083</v>
       </c>
       <c r="F80">
-        <v>-0.01183464464114485</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02334912937652406</v>
+      </c>
+      <c r="G80">
+        <v>-0.06350465703634967</v>
+      </c>
+      <c r="H80">
+        <v>0.08125255621424092</v>
+      </c>
+      <c r="I80">
+        <v>-0.02011868604914706</v>
+      </c>
+      <c r="J80">
+        <v>0.01873134653555134</v>
+      </c>
+      <c r="K80">
+        <v>-0.02141628187100278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.004948123433443055</v>
+        <v>0.01691418582631728</v>
       </c>
       <c r="C81">
-        <v>-0.08118597519889216</v>
+        <v>-0.09812918966775795</v>
       </c>
       <c r="D81">
-        <v>-0.06504836260543678</v>
+        <v>-0.05705918074788782</v>
       </c>
       <c r="E81">
-        <v>-0.08880281327521944</v>
+        <v>-0.02068225232987024</v>
       </c>
       <c r="F81">
-        <v>-0.03561511116532159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.0358164159972053</v>
+      </c>
+      <c r="G81">
+        <v>0.02380760992300121</v>
+      </c>
+      <c r="H81">
+        <v>-0.1165136494289105</v>
+      </c>
+      <c r="I81">
+        <v>0.0162334833506271</v>
+      </c>
+      <c r="J81">
+        <v>-0.04311585968799956</v>
+      </c>
+      <c r="K81">
+        <v>-0.04119120504862891</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01895755420742704</v>
+        <v>0.04815794333158914</v>
       </c>
       <c r="C82">
-        <v>-0.07830304440162669</v>
+        <v>-0.1074478664562379</v>
       </c>
       <c r="D82">
-        <v>-0.07089830190099379</v>
+        <v>-0.06530751933707837</v>
       </c>
       <c r="E82">
-        <v>-0.09797360156654553</v>
+        <v>-0.01370612381381677</v>
       </c>
       <c r="F82">
-        <v>-0.04055067620367142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.06253856243271054</v>
+      </c>
+      <c r="G82">
+        <v>0.04800183911263864</v>
+      </c>
+      <c r="H82">
+        <v>-0.08031585470952964</v>
+      </c>
+      <c r="I82">
+        <v>0.02505806158787039</v>
+      </c>
+      <c r="J82">
+        <v>0.02621363171685831</v>
+      </c>
+      <c r="K82">
+        <v>-0.008755782298103169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.006748572259538528</v>
+        <v>0.0005942424584114945</v>
       </c>
       <c r="C83">
-        <v>-0.006858048805649958</v>
+        <v>0.01938386656894795</v>
       </c>
       <c r="D83">
-        <v>0.1333122175643992</v>
+        <v>0.05246388401600728</v>
       </c>
       <c r="E83">
-        <v>0.4578952139190468</v>
+        <v>-0.1140600552747495</v>
       </c>
       <c r="F83">
-        <v>-0.8033127629457919</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.7081688770684192</v>
+      </c>
+      <c r="G83">
+        <v>-0.6419624301907774</v>
+      </c>
+      <c r="H83">
+        <v>0.006735519963629833</v>
+      </c>
+      <c r="I83">
+        <v>0.01142192513753226</v>
+      </c>
+      <c r="J83">
+        <v>0.1104060871608359</v>
+      </c>
+      <c r="K83">
+        <v>0.05267748235591169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.002443677407598063</v>
+        <v>0.01481039034109216</v>
       </c>
       <c r="C84">
-        <v>-0.09469908995834059</v>
+        <v>-0.06238682518101702</v>
       </c>
       <c r="D84">
-        <v>-0.02919339461074752</v>
+        <v>-0.08735345063384485</v>
       </c>
       <c r="E84">
-        <v>0.09374316351598422</v>
+        <v>0.3047499767332914</v>
       </c>
       <c r="F84">
-        <v>0.1396250152928528</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.08154610096788643</v>
+      </c>
+      <c r="G84">
+        <v>-0.07270427083281777</v>
+      </c>
+      <c r="H84">
+        <v>0.1259900049709798</v>
+      </c>
+      <c r="I84">
+        <v>0.6687750500275141</v>
+      </c>
+      <c r="J84">
+        <v>0.5668616692266155</v>
+      </c>
+      <c r="K84">
+        <v>-0.1539957890616362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.00282137656176298</v>
+        <v>0.03158409920314173</v>
       </c>
       <c r="C85">
-        <v>-0.1029115813713337</v>
+        <v>-0.1146337122736473</v>
       </c>
       <c r="D85">
-        <v>-0.07190782509012918</v>
+        <v>-0.08011859075126893</v>
       </c>
       <c r="E85">
-        <v>-0.09570050471244519</v>
+        <v>-0.02602953657788874</v>
       </c>
       <c r="F85">
-        <v>-0.05845022401208199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.08988185312665423</v>
+      </c>
+      <c r="G85">
+        <v>0.09544805035971964</v>
+      </c>
+      <c r="H85">
+        <v>-0.2237372134050394</v>
+      </c>
+      <c r="I85">
+        <v>0.004923856632202072</v>
+      </c>
+      <c r="J85">
+        <v>0.05334336871110312</v>
+      </c>
+      <c r="K85">
+        <v>-0.07126653416437363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01679179081937747</v>
+        <v>0.01519912649117268</v>
       </c>
       <c r="C86">
-        <v>-0.08372660587368635</v>
+        <v>-0.07889256751110738</v>
       </c>
       <c r="D86">
-        <v>0.001851538488403226</v>
+        <v>-0.03169036667878673</v>
       </c>
       <c r="E86">
-        <v>0.02960917267984627</v>
+        <v>0.06101896654855486</v>
       </c>
       <c r="F86">
-        <v>0.04453044255541894</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03230517795030084</v>
+      </c>
+      <c r="G86">
+        <v>-0.07148732072069434</v>
+      </c>
+      <c r="H86">
+        <v>-0.05545977350090728</v>
+      </c>
+      <c r="I86">
+        <v>-0.09844979171824136</v>
+      </c>
+      <c r="J86">
+        <v>-0.06593673421814426</v>
+      </c>
+      <c r="K86">
+        <v>-0.1236143110040767</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.01376281754819794</v>
+        <v>0.02670185109962705</v>
       </c>
       <c r="C87">
-        <v>-0.1647631599474274</v>
+        <v>-0.119090850219634</v>
       </c>
       <c r="D87">
-        <v>-0.0447262628238289</v>
+        <v>-0.01984127194295254</v>
       </c>
       <c r="E87">
-        <v>0.1051230987205319</v>
+        <v>-0.02814363840373673</v>
       </c>
       <c r="F87">
-        <v>0.06341613479927434</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.03339870481613304</v>
+      </c>
+      <c r="G87">
+        <v>-0.03620281693449081</v>
+      </c>
+      <c r="H87">
+        <v>-0.01229891697781475</v>
+      </c>
+      <c r="I87">
+        <v>0.04151112221813517</v>
+      </c>
+      <c r="J87">
+        <v>-0.01533524123230183</v>
+      </c>
+      <c r="K87">
+        <v>0.09665220676992298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.008495871892123613</v>
+        <v>0.0391257837991572</v>
       </c>
       <c r="C88">
-        <v>-0.03402964548850657</v>
+        <v>-0.05901560829222474</v>
       </c>
       <c r="D88">
-        <v>-0.04265871928966457</v>
+        <v>-0.03811448540735602</v>
       </c>
       <c r="E88">
-        <v>-0.0543424562220703</v>
+        <v>-0.02020717422027453</v>
       </c>
       <c r="F88">
-        <v>-0.01170418197242804</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.001561117462333989</v>
+      </c>
+      <c r="G88">
+        <v>0.02175497316474387</v>
+      </c>
+      <c r="H88">
+        <v>0.007839063102240884</v>
+      </c>
+      <c r="I88">
+        <v>-0.01258188299158344</v>
+      </c>
+      <c r="J88">
+        <v>-0.014113351361818</v>
+      </c>
+      <c r="K88">
+        <v>0.01567124054045083</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4033468269615991</v>
+        <v>0.3893166229438684</v>
       </c>
       <c r="C89">
-        <v>0.07849197088502716</v>
+        <v>0.1248494289486071</v>
       </c>
       <c r="D89">
-        <v>-0.08202097023526358</v>
+        <v>0.03993931839897934</v>
       </c>
       <c r="E89">
-        <v>0.07102166178838974</v>
+        <v>-0.001510155181946596</v>
       </c>
       <c r="F89">
-        <v>0.06571932508529131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.06073552677615435</v>
+      </c>
+      <c r="G89">
+        <v>-0.007832530758207789</v>
+      </c>
+      <c r="H89">
+        <v>0.0263332903041593</v>
+      </c>
+      <c r="I89">
+        <v>0.06378504741920507</v>
+      </c>
+      <c r="J89">
+        <v>0.03981330427097723</v>
+      </c>
+      <c r="K89">
+        <v>0.734233924401745</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3123561307788455</v>
+        <v>0.3155285223963238</v>
       </c>
       <c r="C90">
-        <v>0.01979830440039056</v>
+        <v>0.08061081983619783</v>
       </c>
       <c r="D90">
-        <v>-0.01042290897635006</v>
+        <v>0.02055394292273962</v>
       </c>
       <c r="E90">
-        <v>0.0518221404600501</v>
+        <v>0.008796198008609061</v>
       </c>
       <c r="F90">
-        <v>-0.03921036341689985</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01416807960323111</v>
+      </c>
+      <c r="G90">
+        <v>-0.02945043563411342</v>
+      </c>
+      <c r="H90">
+        <v>-0.001491249505816446</v>
+      </c>
+      <c r="I90">
+        <v>0.01134809893435548</v>
+      </c>
+      <c r="J90">
+        <v>0.005031065315296013</v>
+      </c>
+      <c r="K90">
+        <v>-0.1053867717573541</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.01992415484817275</v>
+        <v>0.05635518405858467</v>
       </c>
       <c r="C91">
-        <v>-0.07546613611524924</v>
+        <v>-0.07765136107620517</v>
       </c>
       <c r="D91">
-        <v>-0.05856262537052962</v>
+        <v>-0.05266747176380514</v>
       </c>
       <c r="E91">
-        <v>-0.0545479410892413</v>
+        <v>-0.0422758257418038</v>
       </c>
       <c r="F91">
-        <v>-0.05759635638454608</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.05689522002502195</v>
+      </c>
+      <c r="G91">
+        <v>0.007188223226034132</v>
+      </c>
+      <c r="H91">
+        <v>-0.08360352689133659</v>
+      </c>
+      <c r="I91">
+        <v>-0.009171725000597977</v>
+      </c>
+      <c r="J91">
+        <v>0.03384757756023932</v>
+      </c>
+      <c r="K91">
+        <v>-0.006170738319415244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3769394619390822</v>
+        <v>0.3501598639348417</v>
       </c>
       <c r="C92">
-        <v>0.06262826675523359</v>
+        <v>0.125555098508444</v>
       </c>
       <c r="D92">
-        <v>0.01017422052121172</v>
+        <v>0.05602898011766457</v>
       </c>
       <c r="E92">
-        <v>0.007797073557089106</v>
+        <v>0.002916475988885712</v>
       </c>
       <c r="F92">
-        <v>0.1261449477993553</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.06455182639747754</v>
+      </c>
+      <c r="G92">
+        <v>-0.0138149505970209</v>
+      </c>
+      <c r="H92">
+        <v>-0.01306456928184219</v>
+      </c>
+      <c r="I92">
+        <v>0.02800095109932736</v>
+      </c>
+      <c r="J92">
+        <v>-0.06611284090455538</v>
+      </c>
+      <c r="K92">
+        <v>-0.1388338262042334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3076721623200719</v>
+        <v>0.3070664906397748</v>
       </c>
       <c r="C93">
-        <v>0.07584239115243249</v>
+        <v>0.1247815556696556</v>
       </c>
       <c r="D93">
-        <v>-0.01012806133649635</v>
+        <v>0.008606073063864019</v>
       </c>
       <c r="E93">
-        <v>0.08355131006465034</v>
+        <v>0.02903839690787122</v>
       </c>
       <c r="F93">
-        <v>0.03407826026910865</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.02790213021411545</v>
+      </c>
+      <c r="G93">
+        <v>-0.0368068780275772</v>
+      </c>
+      <c r="H93">
+        <v>-0.04102877769552564</v>
+      </c>
+      <c r="I93">
+        <v>0.004716290553880434</v>
+      </c>
+      <c r="J93">
+        <v>-0.02710720101809541</v>
+      </c>
+      <c r="K93">
+        <v>-0.1242664421321099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02734210845680814</v>
+        <v>0.08320996666978736</v>
       </c>
       <c r="C94">
-        <v>-0.1878546566492429</v>
+        <v>-0.1624560758521533</v>
       </c>
       <c r="D94">
-        <v>-0.1243896675188845</v>
+        <v>-0.1122363794672318</v>
       </c>
       <c r="E94">
-        <v>-0.1627124288662514</v>
+        <v>-0.04470417201444028</v>
       </c>
       <c r="F94">
-        <v>-0.03476356970990362</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1000246173900858</v>
+      </c>
+      <c r="G94">
+        <v>0.09469357635807774</v>
+      </c>
+      <c r="H94">
+        <v>-0.518543885875084</v>
+      </c>
+      <c r="I94">
+        <v>-0.09048689974660319</v>
+      </c>
+      <c r="J94">
+        <v>0.2626245223025597</v>
+      </c>
+      <c r="K94">
+        <v>0.05287433810388965</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02005837330379842</v>
+        <v>0.04337838830577794</v>
       </c>
       <c r="C95">
-        <v>-0.1222902184990797</v>
+        <v>-0.1321928021678123</v>
       </c>
       <c r="D95">
-        <v>-0.0564738955768489</v>
+        <v>-0.0640197924776251</v>
       </c>
       <c r="E95">
-        <v>-0.08156991378032709</v>
+        <v>-0.004982768344671939</v>
       </c>
       <c r="F95">
-        <v>-0.06561077616768571</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02633817731395757</v>
+      </c>
+      <c r="G95">
+        <v>0.08527318964994327</v>
+      </c>
+      <c r="H95">
+        <v>0.04504117773476966</v>
+      </c>
+      <c r="I95">
+        <v>0.1061187873060447</v>
+      </c>
+      <c r="J95">
+        <v>0.03665350728657245</v>
+      </c>
+      <c r="K95">
+        <v>0.1751894975679964</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.001813272639716892</v>
+        <v>0.02371352630405416</v>
       </c>
       <c r="C97">
-        <v>-0.00147241936275052</v>
+        <v>-0.02847852214731852</v>
       </c>
       <c r="D97">
-        <v>-0.0002173491232820274</v>
+        <v>0.006428957568510353</v>
       </c>
       <c r="E97">
-        <v>-0.003563753773523911</v>
+        <v>0.06352056738458925</v>
       </c>
       <c r="F97">
-        <v>0.001352124333444921</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.01047681426492236</v>
+      </c>
+      <c r="G97">
+        <v>0.02197078263517849</v>
+      </c>
+      <c r="H97">
+        <v>0.03990740546571925</v>
+      </c>
+      <c r="I97">
+        <v>-0.03392889666296612</v>
+      </c>
+      <c r="J97">
+        <v>-0.03182732003091479</v>
+      </c>
+      <c r="K97">
+        <v>0.04288852746888548</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08830109772666082</v>
+        <v>0.1391536683808307</v>
       </c>
       <c r="C98">
-        <v>-0.1531280596852133</v>
+        <v>-0.159776003091325</v>
       </c>
       <c r="D98">
-        <v>-0.1335928968679393</v>
+        <v>-0.08893710447089676</v>
       </c>
       <c r="E98">
-        <v>-0.1621809048608199</v>
+        <v>-0.1023820162784542</v>
       </c>
       <c r="F98">
-        <v>-0.1370012568545573</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1366597062785249</v>
+      </c>
+      <c r="G98">
+        <v>0.1659921473605483</v>
+      </c>
+      <c r="H98">
+        <v>0.3236909158267705</v>
+      </c>
+      <c r="I98">
+        <v>-0.2099006625119189</v>
+      </c>
+      <c r="J98">
+        <v>0.1763532296757476</v>
+      </c>
+      <c r="K98">
+        <v>-0.1406310514128054</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03180302180100971</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.06566302472620866</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.001189507317739014</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.8942394210059118</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.2420866298569429</v>
+      </c>
+      <c r="G99">
+        <v>0.08898599476233952</v>
+      </c>
+      <c r="H99">
+        <v>0.008893430521720402</v>
+      </c>
+      <c r="I99">
+        <v>-0.259268923938726</v>
+      </c>
+      <c r="J99">
+        <v>-0.1022167906655924</v>
+      </c>
+      <c r="K99">
+        <v>0.07208612983334547</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.006399661193487312</v>
+        <v>0.01787261689636856</v>
       </c>
       <c r="C101">
-        <v>-0.08353930566321055</v>
+        <v>-0.08124605558115526</v>
       </c>
       <c r="D101">
-        <v>-0.05290224320143912</v>
+        <v>-0.0486046592128612</v>
       </c>
       <c r="E101">
-        <v>0.008303930919807826</v>
+        <v>-0.01951284999282739</v>
       </c>
       <c r="F101">
-        <v>-0.01678191730313908</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.0257079388251848</v>
+      </c>
+      <c r="G101">
+        <v>-0.02920964951905498</v>
+      </c>
+      <c r="H101">
+        <v>0.1177948528311655</v>
+      </c>
+      <c r="I101">
+        <v>0.1850820258058657</v>
+      </c>
+      <c r="J101">
+        <v>-0.2116984049925854</v>
+      </c>
+      <c r="K101">
+        <v>0.02952164479174292</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.004335866265611489</v>
+        <v>0.002138329770433035</v>
       </c>
       <c r="C102">
-        <v>-0.01334958279460233</v>
+        <v>-0.005352473178748695</v>
       </c>
       <c r="D102">
-        <v>0.003370538064964089</v>
+        <v>0.003326115385935376</v>
       </c>
       <c r="E102">
-        <v>-0.02006443682079117</v>
+        <v>-0.002690359193946026</v>
       </c>
       <c r="F102">
-        <v>-0.01191232020984521</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.00370095176331044</v>
+      </c>
+      <c r="G102">
+        <v>0.003051410554811858</v>
+      </c>
+      <c r="H102">
+        <v>-0.004000680970572201</v>
+      </c>
+      <c r="I102">
+        <v>0.00476210616466064</v>
+      </c>
+      <c r="J102">
+        <v>-0.007971894674454135</v>
+      </c>
+      <c r="K102">
+        <v>0.01334192150387368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
